--- a/Libros.xlsx
+++ b/Libros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lu\ITBA\InfoVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3F465-4CC0-4D95-9AE1-79CA0F5459BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46396FA-F9BE-4900-AFF4-4ABA585756D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5A97EAA7-6DC8-4E96-9E83-F960A23F896E}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
-  <si>
-    <t>dia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="80">
   <si>
     <t>libro</t>
   </si>
@@ -47,9 +44,6 @@
     <t>paginas</t>
   </si>
   <si>
-    <t>libros(s)</t>
-  </si>
-  <si>
     <t>autor</t>
   </si>
   <si>
@@ -258,6 +252,30 @@
   </si>
   <si>
     <t>Ficcion Historica</t>
+  </si>
+  <si>
+    <t>Circe</t>
+  </si>
+  <si>
+    <t>Madeline Miller</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Puntuacion</t>
+  </si>
+  <si>
+    <t>Paginas</t>
+  </si>
+  <si>
+    <t>Libro(s)</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Misterio</t>
   </si>
 </sst>
 </file>
@@ -620,210 +638,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0597C562-6103-459A-8633-072AEC1AEC8B}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <f>SUM(C2:C39)</f>
         <v>4913</v>
       </c>
-      <c r="E2">
-        <f>SUM(D2,D40,D70)</f>
-        <v>12742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>SUM(F2,F40,F70)</f>
+        <v>13132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44563</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44563</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44564</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44565</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44566</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44566</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44567</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44567</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44568</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44568</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44569</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44570</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44571</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44572</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44573</v>
       </c>
@@ -831,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44574</v>
       </c>
@@ -839,106 +955,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44575</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44576</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44577</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44577</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>493</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44578</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44579</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44580</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44580</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44581</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44582</v>
       </c>
@@ -946,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44583</v>
       </c>
@@ -954,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44584</v>
       </c>
@@ -962,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44585</v>
       </c>
@@ -970,29 +1140,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44586</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>404</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44586</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>416</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44587</v>
       </c>
@@ -1000,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44588</v>
       </c>
@@ -1008,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44589</v>
       </c>
@@ -1016,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44590</v>
       </c>
@@ -1024,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44591</v>
       </c>
@@ -1032,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44592</v>
       </c>
@@ -1040,30 +1222,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44593</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <f>SUM(C40:C69)</f>
         <v>4960</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44594</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>570</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44595</v>
       </c>
@@ -1071,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44596</v>
       </c>
@@ -1079,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44597</v>
       </c>
@@ -1087,150 +1275,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44598</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44599</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44600</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44601</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44602</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44602</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44603</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44604</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44605</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44606</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44607</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44608</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C56">
         <v>89</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44609</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>433</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44610</v>
       </c>
@@ -1238,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44611</v>
       </c>
@@ -1246,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44612</v>
       </c>
@@ -1254,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44613</v>
       </c>
@@ -1262,118 +1528,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44614</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>417</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44615</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63">
         <v>459</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44616</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64">
         <v>551</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44617</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44618</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>172</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44619</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44620</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44620</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69">
         <v>288</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44621</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <f>SUM(C70:C101)</f>
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44622</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>320</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44623</v>
       </c>
@@ -1381,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44624</v>
       </c>
@@ -1389,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44625</v>
       </c>
@@ -1397,183 +1717,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44626</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75">
         <v>384</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44627</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C76">
         <v>520</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44628</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C77">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44629</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C78">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44630</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44631</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44632</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C81">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44633</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44634</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83">
         <v>384</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44634</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <v>337</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44635</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44636</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44637</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44638</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44639</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C89">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44640</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C90">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44641</v>
       </c>
@@ -1581,29 +1997,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44642</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C92">
         <v>192</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44643</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C93">
         <v>192</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44644</v>
       </c>
@@ -1611,31 +2039,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44645</v>
       </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
       <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44646</v>
       </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
       <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44647</v>
       </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
       <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44648</v>
       </c>
@@ -1643,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44649</v>
       </c>
@@ -1651,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44650</v>
       </c>
@@ -1659,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44651</v>
       </c>
@@ -1675,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB271F-989E-4181-AEB0-50F578FB937F}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1693,42 +2148,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>501</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1741,21 +2196,21 @@
         <v>100.2</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>608</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1764,25 +2219,25 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G30" si="0">C3/F3</f>
+        <f t="shared" ref="G3:G31" si="0">C3/F3</f>
         <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>592</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1795,21 +2250,21 @@
         <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1827,16 +2282,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1849,21 +2304,21 @@
         <v>75.599999999999994</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1876,21 +2331,21 @@
         <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>493</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1908,16 +2363,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>512</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -1935,16 +2390,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1962,16 +2417,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1989,16 +2444,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -2011,21 +2466,21 @@
         <v>416</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>570</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2038,21 +2493,21 @@
         <v>570</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2065,21 +2520,21 @@
         <v>133.33333333333334</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2092,21 +2547,21 @@
         <v>256</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>624</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2119,21 +2574,21 @@
         <v>89.142857142857139</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>433</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2151,16 +2606,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>417</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2173,21 +2628,21 @@
         <v>417</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>459</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2205,16 +2660,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>551</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -2232,16 +2687,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2259,16 +2714,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>364</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2281,21 +2736,21 @@
         <v>182</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -2313,16 +2768,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>320</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2340,16 +2795,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -2367,16 +2822,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>520</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -2394,16 +2849,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>384</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2421,16 +2876,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>337</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -2448,16 +2903,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -2470,21 +2925,21 @@
         <v>45.083333333333336</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>385</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -2498,6 +2953,33 @@
       </c>
       <c r="H30" s="2">
         <v>42408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>392</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>130.66666666666666</v>
+      </c>
+      <c r="H31" s="2">
+        <v>43377</v>
       </c>
     </row>
   </sheetData>

--- a/Libros.xlsx
+++ b/Libros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lu\ITBA\InfoVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46396FA-F9BE-4900-AFF4-4ABA585756D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4349829-689B-40C1-9C68-B60DC53C112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5A97EAA7-6DC8-4E96-9E83-F960A23F896E}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0597C562-6103-459A-8633-072AEC1AEC8B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,6 +678,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
+        <f>DATE(2022,1,1)</f>
         <v>44562</v>
       </c>
       <c r="B2" t="s">
@@ -703,6 +704,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <f>DATE(2022,1,2)</f>
         <v>44563</v>
       </c>
       <c r="B3" t="s">
@@ -720,6 +722,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <f>DATE(2022,1,2)</f>
         <v>44563</v>
       </c>
       <c r="B4" t="s">
@@ -737,6 +740,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <f>DATE(2022,1,3)</f>
         <v>44564</v>
       </c>
       <c r="B5" t="s">
@@ -754,6 +758,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <f>DATE(2022,1,4)</f>
         <v>44565</v>
       </c>
       <c r="B6" t="s">
@@ -771,6 +776,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
+        <f>DATE(2022,1,5)</f>
         <v>44566</v>
       </c>
       <c r="B7" t="s">
@@ -788,6 +794,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <f>DATE(2022,1,5)</f>
         <v>44566</v>
       </c>
       <c r="B8" t="s">
@@ -805,6 +812,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <f>DATE(2022,1,6)</f>
         <v>44567</v>
       </c>
       <c r="B9" t="s">
@@ -822,6 +830,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
+        <f>DATE(2022,1,6)</f>
         <v>44567</v>
       </c>
       <c r="B10" t="s">
@@ -839,6 +848,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
+        <f>DATE(2022,1,7)</f>
         <v>44568</v>
       </c>
       <c r="B11" t="s">
@@ -856,6 +866,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
+        <f>DATE(2022,1,7)</f>
         <v>44568</v>
       </c>
       <c r="B12" t="s">
@@ -873,6 +884,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
+        <f>DATE(2022,1,8)</f>
         <v>44569</v>
       </c>
       <c r="B13" t="s">
@@ -890,6 +902,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
+        <f>DATE(2022,1,9)</f>
         <v>44570</v>
       </c>
       <c r="B14" t="s">
@@ -907,6 +920,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
+        <f>DATE(2022,1,10)</f>
         <v>44571</v>
       </c>
       <c r="B15" t="s">
@@ -924,6 +938,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <f>DATE(2022,1,11)</f>
         <v>44572</v>
       </c>
       <c r="B16" t="s">
@@ -941,6 +956,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <f>DATE(2022,1,12)</f>
         <v>44573</v>
       </c>
       <c r="C17">
@@ -949,6 +965,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
+        <f>DATE(2022,1,13)</f>
         <v>44574</v>
       </c>
       <c r="C18">
@@ -957,6 +974,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
+        <f>DATE(2022,1,14)</f>
         <v>44575</v>
       </c>
       <c r="B19" t="s">
@@ -974,6 +992,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
+        <f>DATE(2022,1,15)</f>
         <v>44576</v>
       </c>
       <c r="B20" t="s">
@@ -991,6 +1010,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
+        <f>DATE(2022,1,16)</f>
         <v>44577</v>
       </c>
       <c r="B21" t="s">
@@ -1008,6 +1028,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <f>DATE(2022,1,16)</f>
         <v>44577</v>
       </c>
       <c r="B22" t="s">
@@ -1025,6 +1046,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
+        <f>DATE(2022,1,17)</f>
         <v>44578</v>
       </c>
       <c r="B23" t="s">
@@ -1042,6 +1064,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
+        <f>DATE(2022,1,18)</f>
         <v>44579</v>
       </c>
       <c r="B24" t="s">
@@ -1059,6 +1082,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <f>DATE(2022,1,19)</f>
         <v>44580</v>
       </c>
       <c r="B25" t="s">
@@ -1076,6 +1100,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
+        <f>DATE(2022,1,19)</f>
         <v>44580</v>
       </c>
       <c r="B26" t="s">
@@ -1093,6 +1118,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <f>DATE(2022,1,20)</f>
         <v>44581</v>
       </c>
       <c r="B27" t="s">
@@ -1110,6 +1136,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
+        <f>DATE(2022,1,21)</f>
         <v>44582</v>
       </c>
       <c r="C28">
@@ -1118,6 +1145,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
+        <f>DATE(2022,1,22)</f>
         <v>44583</v>
       </c>
       <c r="C29">
@@ -1126,6 +1154,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
+        <f>DATE(2022,1,23)</f>
         <v>44584</v>
       </c>
       <c r="C30">
@@ -1134,6 +1163,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
+        <f>DATE(2022,1,24)</f>
         <v>44585</v>
       </c>
       <c r="C31">
@@ -1142,6 +1172,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
+        <f>DATE(2022,1,25)</f>
         <v>44586</v>
       </c>
       <c r="B32" t="s">
@@ -1159,6 +1190,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
+        <f>DATE(2022,1,25)</f>
         <v>44586</v>
       </c>
       <c r="B33" t="s">
@@ -1176,6 +1208,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
+        <f>DATE(2022,1,26)</f>
         <v>44587</v>
       </c>
       <c r="C34">
@@ -1184,6 +1217,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
+        <f>DATE(2022,1,27)</f>
         <v>44588</v>
       </c>
       <c r="C35">
@@ -1192,6 +1226,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <f>DATE(2022,1,28)</f>
         <v>44589</v>
       </c>
       <c r="C36">
@@ -1200,6 +1235,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
+        <f>DATE(2022,1,29)</f>
         <v>44590</v>
       </c>
       <c r="C37">
@@ -1208,6 +1244,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
+        <f>DATE(2022,1,30)</f>
         <v>44591</v>
       </c>
       <c r="C38">
@@ -1216,6 +1253,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <f>DATE(2022,1,31)</f>
         <v>44592</v>
       </c>
       <c r="C39">
@@ -1224,6 +1262,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
+        <f>DATE(2022,2,1)</f>
         <v>44593</v>
       </c>
       <c r="C40">
@@ -1236,6 +1275,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
+        <f>DATE(2022,2,2)</f>
         <v>44594</v>
       </c>
       <c r="B41" t="s">
@@ -1253,6 +1293,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <f>DATE(2022,2,3)</f>
         <v>44595</v>
       </c>
       <c r="C42">
@@ -1261,6 +1302,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
+        <f>DATE(2022,2,4)</f>
         <v>44596</v>
       </c>
       <c r="C43">
@@ -1269,6 +1311,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
+        <f>DATE(2022,2,5)</f>
         <v>44597</v>
       </c>
       <c r="C44">
@@ -1277,6 +1320,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
+        <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
       <c r="B45" t="s">
@@ -1294,6 +1338,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
+        <f>DATE(2022,2,7)</f>
         <v>44599</v>
       </c>
       <c r="B46" t="s">
@@ -1311,6 +1356,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
+        <f>DATE(2022,2,8)</f>
         <v>44600</v>
       </c>
       <c r="B47" t="s">
@@ -1328,6 +1374,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
+        <f>DATE(2022,2,9)</f>
         <v>44601</v>
       </c>
       <c r="B48" t="s">
@@ -1345,6 +1392,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <f>DATE(2022,2,10)</f>
         <v>44602</v>
       </c>
       <c r="B49" t="s">
@@ -1362,6 +1410,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
+        <f>DATE(2022,2,10)</f>
         <v>44602</v>
       </c>
       <c r="B50" t="s">
@@ -1379,6 +1428,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
+        <f>DATE(2022,2,11)</f>
         <v>44603</v>
       </c>
       <c r="B51" t="s">
@@ -1396,6 +1446,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
+        <f>DATE(2022,2,12)</f>
         <v>44604</v>
       </c>
       <c r="B52" t="s">
@@ -1413,6 +1464,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
+        <f>DATE(2022,2,13)</f>
         <v>44605</v>
       </c>
       <c r="B53" t="s">
@@ -1430,6 +1482,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
+        <f>DATE(2022,2,14)</f>
         <v>44606</v>
       </c>
       <c r="B54" t="s">
@@ -1447,6 +1500,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
+        <f>DATE(2022,2,15)</f>
         <v>44607</v>
       </c>
       <c r="B55" t="s">
@@ -1464,6 +1518,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
+        <f>DATE(2022,2,16)</f>
         <v>44608</v>
       </c>
       <c r="B56" t="s">
@@ -1481,6 +1536,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
+        <f>DATE(2022,2,17)</f>
         <v>44609</v>
       </c>
       <c r="B57" t="s">
@@ -1498,6 +1554,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
+        <f>DATE(2022,2,18)</f>
         <v>44610</v>
       </c>
       <c r="C58">
@@ -1506,6 +1563,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
+        <f>DATE(2022,2,19)</f>
         <v>44611</v>
       </c>
       <c r="C59">
@@ -1514,6 +1572,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
+        <f>DATE(2022,2,20)</f>
         <v>44612</v>
       </c>
       <c r="C60">
@@ -1522,6 +1581,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
+        <f>DATE(2022,2,21)</f>
         <v>44613</v>
       </c>
       <c r="C61">
@@ -1530,6 +1590,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
+        <f>DATE(2022,2,22)</f>
         <v>44614</v>
       </c>
       <c r="B62" t="s">
@@ -1547,6 +1608,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
+        <f>DATE(2022,2,23)</f>
         <v>44615</v>
       </c>
       <c r="B63" t="s">
@@ -1564,6 +1626,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
+        <f>DATE(2022,2,24)</f>
         <v>44616</v>
       </c>
       <c r="B64" t="s">
@@ -1581,6 +1644,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
+        <f>DATE(2022,2,25)</f>
         <v>44617</v>
       </c>
       <c r="B65" t="s">
@@ -1598,6 +1662,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
+        <f>DATE(2022,2,26)</f>
         <v>44618</v>
       </c>
       <c r="B66" t="s">
@@ -1615,6 +1680,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
+        <f>DATE(2022,2,27)</f>
         <v>44619</v>
       </c>
       <c r="B67" t="s">
@@ -1632,6 +1698,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
+        <f>DATE(2022,2,28)</f>
         <v>44620</v>
       </c>
       <c r="B68" t="s">
@@ -1649,6 +1716,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
+        <f>DATE(2022,2,28)</f>
         <v>44620</v>
       </c>
       <c r="B69" t="s">
@@ -1666,6 +1734,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
+        <f>DATE(2022,3,1)</f>
         <v>44621</v>
       </c>
       <c r="C70">
@@ -1678,6 +1747,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
+        <f>DATE(2022,3,2)</f>
         <v>44622</v>
       </c>
       <c r="B71" t="s">
@@ -1695,6 +1765,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
+        <f>DATE(2022,3,3)</f>
         <v>44623</v>
       </c>
       <c r="C72">
@@ -1703,6 +1774,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
+        <f>DATE(2022,3,4)</f>
         <v>44624</v>
       </c>
       <c r="C73">
@@ -1711,6 +1783,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
+        <f>DATE(2022,3,5)</f>
         <v>44625</v>
       </c>
       <c r="C74">
@@ -1719,6 +1792,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
+        <f>DATE(2022,3,6)</f>
         <v>44626</v>
       </c>
       <c r="B75" t="s">
@@ -1736,6 +1810,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
+        <f>DATE(2022,3,7)</f>
         <v>44627</v>
       </c>
       <c r="B76" t="s">
@@ -1753,6 +1828,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
+        <f>DATE(2022,3,8)</f>
         <v>44628</v>
       </c>
       <c r="B77" t="s">
@@ -1770,6 +1846,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
+        <f>DATE(2022,3,9)</f>
         <v>44629</v>
       </c>
       <c r="B78" t="s">
@@ -1787,6 +1864,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
+        <f>DATE(2022,3,10)</f>
         <v>44630</v>
       </c>
       <c r="B79" t="s">
@@ -1804,6 +1882,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
+        <f>DATE(2022,3,11)</f>
         <v>44631</v>
       </c>
       <c r="B80" t="s">
@@ -1821,6 +1900,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
+        <f>DATE(2022,3,12)</f>
         <v>44632</v>
       </c>
       <c r="B81" t="s">
@@ -1838,6 +1918,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
+        <f>DATE(2022,3,13)</f>
         <v>44633</v>
       </c>
       <c r="B82" t="s">
@@ -1855,6 +1936,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
+        <f>DATE(2022,3,14)</f>
         <v>44634</v>
       </c>
       <c r="B83" t="s">
@@ -1872,6 +1954,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
+        <f>DATE(2022,3,14)</f>
         <v>44634</v>
       </c>
       <c r="B84" t="s">
@@ -1889,6 +1972,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
+        <f>DATE(2022,3,15)</f>
         <v>44635</v>
       </c>
       <c r="B85" t="s">
@@ -1906,6 +1990,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
+        <f>DATE(2022,3,16)</f>
         <v>44636</v>
       </c>
       <c r="B86" t="s">
@@ -1923,6 +2008,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
+        <f>DATE(2022,3,17)</f>
         <v>44637</v>
       </c>
       <c r="B87" t="s">
@@ -1940,6 +2026,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
+        <f>DATE(2022,3,18)</f>
         <v>44638</v>
       </c>
       <c r="B88" t="s">
@@ -1957,6 +2044,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
+        <f>DATE(2022,3,19)</f>
         <v>44639</v>
       </c>
       <c r="B89" t="s">
@@ -1974,6 +2062,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
+        <f>DATE(2022,3,20)</f>
         <v>44640</v>
       </c>
       <c r="B90" t="s">
@@ -1991,6 +2080,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
+        <f>DATE(2022,3,21)</f>
         <v>44641</v>
       </c>
       <c r="C91">
@@ -1999,6 +2089,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
+        <f>DATE(2022,3,22)</f>
         <v>44642</v>
       </c>
       <c r="B92" t="s">
@@ -2016,6 +2107,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
+        <f>DATE(2022,3,23)</f>
         <v>44643</v>
       </c>
       <c r="B93" t="s">
@@ -2033,6 +2125,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
+        <f>DATE(2022,3,24)</f>
         <v>44644</v>
       </c>
       <c r="C94">
@@ -2041,6 +2134,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
+        <f>DATE(2022,3,25)</f>
         <v>44645</v>
       </c>
       <c r="B95" t="s">
@@ -2058,6 +2152,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
+        <f>DATE(2022,3,26)</f>
         <v>44646</v>
       </c>
       <c r="B96" t="s">
@@ -2075,6 +2170,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
+        <f>DATE(2022,3,27)</f>
         <v>44647</v>
       </c>
       <c r="B97" t="s">
@@ -2092,6 +2188,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
+        <f>DATE(2022,3,28)</f>
         <v>44648</v>
       </c>
       <c r="C98">
@@ -2100,6 +2197,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
+        <f>DATE(2022,3,29)</f>
         <v>44649</v>
       </c>
       <c r="C99">
@@ -2108,6 +2206,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
+        <f>DATE(2022,3,30)</f>
         <v>44650</v>
       </c>
       <c r="C100">
@@ -2116,6 +2215,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
+        <f>DATE(2022,3,31)</f>
         <v>44651</v>
       </c>
       <c r="C101">
